--- a/統計管制與最佳化方法概論/homework/my_homework/HW6/hw_1.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW6/hw_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706FB339-57A6-46DB-9C14-26BC4BECFC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A047B47-585B-43E2-956D-8DA992413AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{D5A2568C-D957-4815-932A-62E692D3D864}"/>
   </bookViews>
@@ -7091,7 +7091,7 @@
   <dimension ref="A1:AB51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="O1" sqref="O1:Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -9825,7 +9825,7 @@
   <dimension ref="A1:AA101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q39"/>
+      <selection activeCell="O1" sqref="O1:P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -14607,7 +14607,7 @@
   <dimension ref="A1:AA501"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q39"/>
+      <selection activeCell="O1" sqref="O1:P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
